--- a/Assets/PSW/Excel/PlayerData.xlsx
+++ b/Assets/PSW/Excel/PlayerData.xlsx
@@ -29,11 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StartMonsterNamelist</t>
+    <t>{Char_Starting_Battle_Character_Fire_01,Char_Starting_Battle_Character_Leaf_01,Char_Starting_Battle_Character_Water_01}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{GreenMonster,BlueMonster,RedMonster}</t>
+    <t>StartMonsterNameList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
